--- a/biology/Botanique/Liste_des_espèces_du_genre_Lupinus/Liste_des_espèces_du_genre_Lupinus.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Lupinus/Liste_des_espèces_du_genre_Lupinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Lupinus</t>
+          <t>Liste_des_espèces_du_genre_Lupinus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La liste des espèces du genre Lupinus comprend environ 400 espèces acceptées (leur nombre varie de 200 à 600, voire 1000, selon les auteurs). Ces espèces sont regroupées en deux sous-genres, Lupinus subgen Lupinus et Lupinus subgen Platycarpos (Wats.) Kurl.
-Le premier compte une douzaine d'espèces de l'Ancien Monde qui sont toutes des plantes herbacées annuelles[1]. Ces espèces sont les suivantes : Lupinus albus, Lupinus anatolicus, Lupinus angustifolius, Lupinus atlanticus, Lupinus cosentinii, Lupinus digitatus, Lupinus hispanicus, Lupinus luteus, Lupinus micranthus,  Lupinus palaestinus ,  Lupinus pilosus,  Lupinus princei, Lupinus somaliensis†.
-Le second regroupe toutes les autres espèces, originaires du continent américain et majoritairement vivaces[2].
-Selon la base de données The Plant List, 1229 espèces d’Astragalus ont été décrites, dont 629 (50,9 %) sont acceptées, 325 (26,4 %) classées comme synonymes et 278 (22,6 %) non évaluées[3]. La base de données GRIN recense environ 330 espèces et variétés dans le genre Lupinus[4].
+Le premier compte une douzaine d'espèces de l'Ancien Monde qui sont toutes des plantes herbacées annuelles. Ces espèces sont les suivantes : Lupinus albus, Lupinus anatolicus, Lupinus angustifolius, Lupinus atlanticus, Lupinus cosentinii, Lupinus digitatus, Lupinus hispanicus, Lupinus luteus, Lupinus micranthus,  Lupinus palaestinus ,  Lupinus pilosus,  Lupinus princei, Lupinus somaliensis†.
+Le second regroupe toutes les autres espèces, originaires du continent américain et majoritairement vivaces.
+Selon la base de données The Plant List, 1229 espèces d’Astragalus ont été décrites, dont 629 (50,9 %) sont acceptées, 325 (26,4 %) classées comme synonymes et 278 (22,6 %) non évaluées. La base de données GRIN recense environ 330 espèces et variétés dans le genre Lupinus.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Lupinus</t>
+          <t>Liste_des_espèces_du_genre_Lupinus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Liste d'espèces acceptées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (22 septembre 2019)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (22 septembre 2019) :
 Lupinus aberrans C.P.Sm.
 Lupinus abramsii C.P.Sm.
 Lupinus acopalcus C.P.Sm.
